--- a/data/pca/factorExposure/factorExposure_2012-09-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-09-19.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001824044847947945</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001789141880355533</v>
+      </c>
+      <c r="C2">
+        <v>0.02843899420968141</v>
+      </c>
+      <c r="D2">
+        <v>0.00504989895588435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0006872284138103922</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.007436164474748789</v>
+      </c>
+      <c r="C4">
+        <v>0.0832905937798399</v>
+      </c>
+      <c r="D4">
+        <v>0.06948212136968551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.004872238164233745</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01498077571219217</v>
+      </c>
+      <c r="C6">
+        <v>0.1163280607724103</v>
+      </c>
+      <c r="D6">
+        <v>0.0240706227361597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001715927949319458</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.005066297564409826</v>
+      </c>
+      <c r="C7">
+        <v>0.05800894326729351</v>
+      </c>
+      <c r="D7">
+        <v>0.03534835811227213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0005116791501474879</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.006001903752112845</v>
+      </c>
+      <c r="C8">
+        <v>0.03535589484127045</v>
+      </c>
+      <c r="D8">
+        <v>0.04084651294754459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.001489213771939945</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005395496516890728</v>
+      </c>
+      <c r="C9">
+        <v>0.07029911584369508</v>
+      </c>
+      <c r="D9">
+        <v>0.07540203210433226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.004572643911712034</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.004963749451838022</v>
+      </c>
+      <c r="C10">
+        <v>0.05490622285060142</v>
+      </c>
+      <c r="D10">
+        <v>-0.1891911267713274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.001491757723072944</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005852027573973449</v>
+      </c>
+      <c r="C11">
+        <v>0.07884727687389194</v>
+      </c>
+      <c r="D11">
+        <v>0.06584705741656642</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.001039212508705593</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004539053295501434</v>
+      </c>
+      <c r="C12">
+        <v>0.06432312429816542</v>
+      </c>
+      <c r="D12">
+        <v>0.0514748985695001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.001651450472820981</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008568231497505591</v>
+      </c>
+      <c r="C13">
+        <v>0.06754686317358553</v>
+      </c>
+      <c r="D13">
+        <v>0.06136569302503653</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001992099551397237</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0007943951672225527</v>
+      </c>
+      <c r="C14">
+        <v>0.0415031732323986</v>
+      </c>
+      <c r="D14">
+        <v>0.01328740084251571</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.001469853784434754</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005956893162555734</v>
+      </c>
+      <c r="C15">
+        <v>0.03971769529585866</v>
+      </c>
+      <c r="D15">
+        <v>0.03015387265395907</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>5.142485419532496e-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005197819024359634</v>
+      </c>
+      <c r="C16">
+        <v>0.06373158643860381</v>
+      </c>
+      <c r="D16">
+        <v>0.05835271023347347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.002261628462656299</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008813192721357006</v>
+      </c>
+      <c r="C20">
+        <v>0.06284972275074485</v>
+      </c>
+      <c r="D20">
+        <v>0.05260523454890367</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005901600126544893</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009406535400589415</v>
+      </c>
+      <c r="C21">
+        <v>0.01922399179243151</v>
+      </c>
+      <c r="D21">
+        <v>0.04300239138540993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01912661368100314</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006914795157834</v>
+      </c>
+      <c r="C22">
+        <v>0.08650774214830984</v>
+      </c>
+      <c r="D22">
+        <v>0.1245768064775785</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01881793186603352</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006627025885187206</v>
+      </c>
+      <c r="C23">
+        <v>0.08687355361688784</v>
+      </c>
+      <c r="D23">
+        <v>0.1257289687705655</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001866435299732172</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005752992363705102</v>
+      </c>
+      <c r="C24">
+        <v>0.07587428651327993</v>
+      </c>
+      <c r="D24">
+        <v>0.06853632744065327</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003512157538048948</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003280710614268558</v>
+      </c>
+      <c r="C25">
+        <v>0.07713067349071115</v>
+      </c>
+      <c r="D25">
+        <v>0.06799063987063357</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.002078325786686449</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003678076869738705</v>
+      </c>
+      <c r="C26">
+        <v>0.03812057282047657</v>
+      </c>
+      <c r="D26">
+        <v>0.02606022911065163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004551801328801749</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001463515809885861</v>
+      </c>
+      <c r="C28">
+        <v>0.1053694776866125</v>
+      </c>
+      <c r="D28">
+        <v>-0.3240881714766112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0008454786097430167</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002673872690590376</v>
+      </c>
+      <c r="C29">
+        <v>0.04752846873607715</v>
+      </c>
+      <c r="D29">
+        <v>0.01200311397680497</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003605961816849501</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009835144692156217</v>
+      </c>
+      <c r="C30">
+        <v>0.1408235700782252</v>
+      </c>
+      <c r="D30">
+        <v>0.111936870498571</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.002164217205390501</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006383776480486888</v>
+      </c>
+      <c r="C31">
+        <v>0.04304776422027656</v>
+      </c>
+      <c r="D31">
+        <v>0.03359174084414167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.000766826413100406</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003712729054877493</v>
+      </c>
+      <c r="C32">
+        <v>0.03969244549853289</v>
+      </c>
+      <c r="D32">
+        <v>0.02361640738004778</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>9.131200557095789e-05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.009174747913974738</v>
+      </c>
+      <c r="C33">
+        <v>0.08798208101716029</v>
+      </c>
+      <c r="D33">
+        <v>0.06745761836118906</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.001739165296198858</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004346091904848961</v>
+      </c>
+      <c r="C34">
+        <v>0.05721990205691808</v>
+      </c>
+      <c r="D34">
+        <v>0.05937627148507944</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002125525944531308</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005453644813023631</v>
+      </c>
+      <c r="C35">
+        <v>0.04012179408511632</v>
+      </c>
+      <c r="D35">
+        <v>0.02117508905654118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.005086909904952874</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001526508147594112</v>
+      </c>
+      <c r="C36">
+        <v>0.02356005309327682</v>
+      </c>
+      <c r="D36">
+        <v>0.02773478911384235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.003265382547159176</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009425113331298005</v>
+      </c>
+      <c r="C38">
+        <v>0.03935733109622283</v>
+      </c>
+      <c r="D38">
+        <v>0.01296602014832928</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01061234516643114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001117221857217568</v>
+      </c>
+      <c r="C39">
+        <v>0.1127331031029296</v>
+      </c>
+      <c r="D39">
+        <v>0.07779811635396829</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.003272059469051462</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.003904930200063356</v>
+      </c>
+      <c r="C40">
+        <v>0.08984734161805402</v>
+      </c>
+      <c r="D40">
+        <v>0.01861062774462627</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.001379392466978482</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007292024621168654</v>
+      </c>
+      <c r="C41">
+        <v>0.03908333662727542</v>
+      </c>
+      <c r="D41">
+        <v>0.04118419369105243</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.001256734088188732</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.00389476875206499</v>
+      </c>
+      <c r="C43">
+        <v>0.05226572190112479</v>
+      </c>
+      <c r="D43">
+        <v>0.02974210831380279</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.007031792828369418</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.00269068468852227</v>
+      </c>
+      <c r="C44">
+        <v>0.1030546180176335</v>
+      </c>
+      <c r="D44">
+        <v>0.0700040008299268</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001553868398352439</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001650681159308441</v>
+      </c>
+      <c r="C46">
+        <v>0.03259757275664158</v>
+      </c>
+      <c r="D46">
+        <v>0.03546089683228662</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0008619977747987956</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002289360807147511</v>
+      </c>
+      <c r="C47">
+        <v>0.03482636769645542</v>
+      </c>
+      <c r="D47">
+        <v>0.0232090217705349</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003506365817949096</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006754442901424948</v>
+      </c>
+      <c r="C48">
+        <v>0.03009111138301633</v>
+      </c>
+      <c r="D48">
+        <v>0.03708639479607918</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.004215060274740276</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01817910314550581</v>
+      </c>
+      <c r="C49">
+        <v>0.1907478748784527</v>
+      </c>
+      <c r="D49">
+        <v>0.004445691215308816</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0008664427131213845</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003578216987601877</v>
+      </c>
+      <c r="C50">
+        <v>0.04200363527820777</v>
+      </c>
+      <c r="D50">
+        <v>0.04095513437745821</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.001207240274747528</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004725425916572031</v>
+      </c>
+      <c r="C51">
+        <v>0.02663973652172851</v>
+      </c>
+      <c r="D51">
+        <v>0.02298976862426199</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.007428859993949264</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02173983660870036</v>
+      </c>
+      <c r="C53">
+        <v>0.1716908004477337</v>
+      </c>
+      <c r="D53">
+        <v>0.02177225523821732</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.004306287192075489</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.009463137342637816</v>
+      </c>
+      <c r="C54">
+        <v>0.05486594052011289</v>
+      </c>
+      <c r="D54">
+        <v>0.0428353620758186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.001455233404653973</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009931607486173576</v>
+      </c>
+      <c r="C55">
+        <v>0.1076301299571609</v>
+      </c>
+      <c r="D55">
+        <v>0.03871563187288824</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.007923288330316339</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02075464242530975</v>
+      </c>
+      <c r="C56">
+        <v>0.1747350520217439</v>
+      </c>
+      <c r="D56">
+        <v>0.01542316373562894</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.002637961158705089</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01940581633405828</v>
+      </c>
+      <c r="C58">
+        <v>0.1038090486944364</v>
+      </c>
+      <c r="D58">
+        <v>0.07211430097301615</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.0002775446609000646</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.01032363268758239</v>
+      </c>
+      <c r="C59">
+        <v>0.1695102909300121</v>
+      </c>
+      <c r="D59">
+        <v>-0.3413515682329109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.006079417785780032</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02540643026073017</v>
+      </c>
+      <c r="C60">
+        <v>0.2270254042676485</v>
+      </c>
+      <c r="D60">
+        <v>0.01683502548061276</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01005309582756784</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001656508981954816</v>
+      </c>
+      <c r="C61">
+        <v>0.09392992592958671</v>
+      </c>
+      <c r="D61">
+        <v>0.05778096884507698</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1478433495905265</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1500038580115834</v>
+      </c>
+      <c r="C62">
+        <v>0.09841603316341509</v>
+      </c>
+      <c r="D62">
+        <v>0.01987999794795933</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0009962870721123027</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006527848250696426</v>
+      </c>
+      <c r="C63">
+        <v>0.05244639031786921</v>
+      </c>
+      <c r="D63">
+        <v>0.03551540572446896</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.007719271456702386</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01612716518269891</v>
+      </c>
+      <c r="C64">
+        <v>0.1054054308399755</v>
+      </c>
+      <c r="D64">
+        <v>0.05453296785227781</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.007659510650358641</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.0177701568075576</v>
+      </c>
+      <c r="C65">
+        <v>0.1203716052535709</v>
+      </c>
+      <c r="D65">
+        <v>0.03074180330728748</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.001315260880895589</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01363081897816155</v>
+      </c>
+      <c r="C66">
+        <v>0.160256645733517</v>
+      </c>
+      <c r="D66">
+        <v>0.1094209212882088</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.006332836538529498</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01593417320753164</v>
+      </c>
+      <c r="C67">
+        <v>0.07173028996738935</v>
+      </c>
+      <c r="D67">
+        <v>0.02294154375227627</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.002579194806215821</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.00109745817448163</v>
+      </c>
+      <c r="C68">
+        <v>0.08734121750815282</v>
+      </c>
+      <c r="D68">
+        <v>-0.2566667881678598</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.0004505947269979775</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006563473519636007</v>
+      </c>
+      <c r="C69">
+        <v>0.05212222021530721</v>
+      </c>
+      <c r="D69">
+        <v>0.03889827906541466</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001140490161602187</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002419623112969852</v>
+      </c>
+      <c r="C70">
+        <v>0.007377031766366602</v>
+      </c>
+      <c r="D70">
+        <v>0.0008739585555303341</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.002569059311196393</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005619965451861464</v>
+      </c>
+      <c r="C71">
+        <v>0.09172777045784472</v>
+      </c>
+      <c r="D71">
+        <v>-0.3010364733669037</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.003281914253914586</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01718549351084435</v>
+      </c>
+      <c r="C72">
+        <v>0.1562591922198376</v>
+      </c>
+      <c r="D72">
+        <v>0.01165411500217205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.009403055474634209</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03222990642379148</v>
+      </c>
+      <c r="C73">
+        <v>0.2820600910497465</v>
+      </c>
+      <c r="D73">
+        <v>0.05097724185474217</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005894314486989799</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002153465384686162</v>
+      </c>
+      <c r="C74">
+        <v>0.1020432131348705</v>
+      </c>
+      <c r="D74">
+        <v>0.0350119844123176</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.001453352057622965</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01090157182600182</v>
+      </c>
+      <c r="C75">
+        <v>0.1205972625816229</v>
+      </c>
+      <c r="D75">
+        <v>0.02774470009645224</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.0105289615588012</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02264016737805739</v>
+      </c>
+      <c r="C76">
+        <v>0.1463711334093998</v>
+      </c>
+      <c r="D76">
+        <v>0.05797946839071662</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.004389635573355742</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02093513615408567</v>
+      </c>
+      <c r="C77">
+        <v>0.1132224784729389</v>
+      </c>
+      <c r="D77">
+        <v>0.0564968323024452</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.005540615879905787</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01499960817668603</v>
+      </c>
+      <c r="C78">
+        <v>0.09771871870352429</v>
+      </c>
+      <c r="D78">
+        <v>0.08094874421387495</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02689236354660345</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03872960337762768</v>
+      </c>
+      <c r="C79">
+        <v>0.1556520539201173</v>
+      </c>
+      <c r="D79">
+        <v>0.03397793364401369</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.005953303074287193</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.009968325752804347</v>
+      </c>
+      <c r="C80">
+        <v>0.03860898743100414</v>
+      </c>
+      <c r="D80">
+        <v>0.03163096024264981</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.004344633614854181</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01594321081062093</v>
+      </c>
+      <c r="C81">
+        <v>0.1283199784385818</v>
+      </c>
+      <c r="D81">
+        <v>0.04042322920894815</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.007995622401161131</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.02004281184266083</v>
+      </c>
+      <c r="C82">
+        <v>0.1382070523225591</v>
+      </c>
+      <c r="D82">
+        <v>0.0378912035075459</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.004594755779608495</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01233403227760906</v>
+      </c>
+      <c r="C83">
+        <v>0.06397754758530635</v>
+      </c>
+      <c r="D83">
+        <v>0.04416014377466663</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01030456626066749</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01273968900145046</v>
+      </c>
+      <c r="C84">
+        <v>0.03884306496968094</v>
+      </c>
+      <c r="D84">
+        <v>-0.006634738899856794</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01812238571282754</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02920067799399144</v>
+      </c>
+      <c r="C85">
+        <v>0.1229847346216173</v>
+      </c>
+      <c r="D85">
+        <v>0.04038314591480056</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002442395682743077</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.004298961068016956</v>
+      </c>
+      <c r="C86">
+        <v>0.04913916424721883</v>
+      </c>
+      <c r="D86">
+        <v>0.03121408174516349</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.0006671769331353238</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01141479060355598</v>
+      </c>
+      <c r="C87">
+        <v>0.1267297727435121</v>
+      </c>
+      <c r="D87">
+        <v>0.07862822647713488</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.009502280200597749</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.003051513648079308</v>
+      </c>
+      <c r="C88">
+        <v>0.06276356477735398</v>
+      </c>
+      <c r="D88">
+        <v>0.02982006936237668</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.008215943087922829</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001845921616088959</v>
+      </c>
+      <c r="C89">
+        <v>0.139473075310203</v>
+      </c>
+      <c r="D89">
+        <v>-0.3157336783192835</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>4.770970617622693e-05</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006635915920547573</v>
+      </c>
+      <c r="C90">
+        <v>0.1208920750161089</v>
+      </c>
+      <c r="D90">
+        <v>-0.3120229631739095</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001770364623279422</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.0105940964237761</v>
+      </c>
+      <c r="C91">
+        <v>0.09873520034050144</v>
+      </c>
+      <c r="D91">
+        <v>0.02762259053692526</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.003650066840475183</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0005127192149618614</v>
+      </c>
+      <c r="C92">
+        <v>0.1342082308406375</v>
+      </c>
+      <c r="D92">
+        <v>-0.3239555316301025</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.00105825927770312</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004130225247279265</v>
+      </c>
+      <c r="C93">
+        <v>0.1056129194178758</v>
+      </c>
+      <c r="D93">
+        <v>-0.2976869792636127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.009903614764306748</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02214778511038166</v>
+      </c>
+      <c r="C94">
+        <v>0.1421305938943958</v>
+      </c>
+      <c r="D94">
+        <v>0.05540988690431197</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.006351878186989829</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01668232996813984</v>
+      </c>
+      <c r="C95">
+        <v>0.1206141533593396</v>
+      </c>
+      <c r="D95">
+        <v>0.06711267239708553</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.01647813212272799</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03690228182570216</v>
+      </c>
+      <c r="C97">
+        <v>0.2248178965427463</v>
+      </c>
+      <c r="D97">
+        <v>0.004140014234623126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01228057986951778</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03877264811934237</v>
+      </c>
+      <c r="C98">
+        <v>0.2599856740777849</v>
+      </c>
+      <c r="D98">
+        <v>0.03059075131383536</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9870177775975173</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9809704251994564</v>
+      </c>
+      <c r="C99">
+        <v>-0.1219338023250731</v>
+      </c>
+      <c r="D99">
+        <v>-0.02426303499539408</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0007709568167699103</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002714389085288788</v>
+      </c>
+      <c r="C101">
+        <v>0.04764798343443953</v>
+      </c>
+      <c r="D101">
+        <v>0.01237592303873197</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
